--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H2">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I2">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J2">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N2">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O2">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P2">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q2">
-        <v>749.0934852216722</v>
+        <v>941.1572051094265</v>
       </c>
       <c r="R2">
-        <v>6741.841366995049</v>
+        <v>8470.414845984838</v>
       </c>
       <c r="S2">
-        <v>0.1175396605228697</v>
+        <v>0.1489831649941186</v>
       </c>
       <c r="T2">
-        <v>0.1264724171365879</v>
+        <v>0.1516254467431686</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H3">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I3">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J3">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P3">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q3">
-        <v>484.3348381553228</v>
+        <v>432.246426126136</v>
       </c>
       <c r="R3">
-        <v>4359.013543397904</v>
+        <v>3890.217835135224</v>
       </c>
       <c r="S3">
-        <v>0.07599659265402546</v>
+        <v>0.06842368126394023</v>
       </c>
       <c r="T3">
-        <v>0.0817721671505862</v>
+        <v>0.06963720524977889</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H4">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I4">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J4">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N4">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O4">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P4">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q4">
-        <v>28.49145211129111</v>
+        <v>34.98372990354066</v>
       </c>
       <c r="R4">
-        <v>256.42306900162</v>
+        <v>314.853569131866</v>
       </c>
       <c r="S4">
-        <v>0.004470570996854624</v>
+        <v>0.005537849337000924</v>
       </c>
       <c r="T4">
-        <v>0.004810324595440864</v>
+        <v>0.00563606552292182</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H5">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I5">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J5">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N5">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O5">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P5">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q5">
-        <v>118.8845384256867</v>
+        <v>58.417971599987</v>
       </c>
       <c r="R5">
-        <v>713.30723055412</v>
+        <v>350.507829599922</v>
       </c>
       <c r="S5">
-        <v>0.0186540779804515</v>
+        <v>0.009247439486467814</v>
       </c>
       <c r="T5">
-        <v>0.01338116468459635</v>
+        <v>0.006274297920043302</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H6">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I6">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J6">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N6">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O6">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P6">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q6">
-        <v>56.00245745446578</v>
+        <v>19.90036755485467</v>
       </c>
       <c r="R6">
-        <v>504.022117090192</v>
+        <v>179.103307993692</v>
       </c>
       <c r="S6">
-        <v>0.008787300874331407</v>
+        <v>0.00315018545974347</v>
       </c>
       <c r="T6">
-        <v>0.009455116483571174</v>
+        <v>0.003206055379990708</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I7">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J7">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N7">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O7">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P7">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q7">
-        <v>2129.747916319206</v>
+        <v>2998.255583209024</v>
       </c>
       <c r="R7">
-        <v>19167.73124687286</v>
+        <v>26984.30024888122</v>
       </c>
       <c r="S7">
-        <v>0.3341770446840434</v>
+        <v>0.4746174218533785</v>
       </c>
       <c r="T7">
-        <v>0.3595737677371391</v>
+        <v>0.4830349699138847</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I8">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J8">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P8">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q8">
         <v>1377.012526089255</v>
@@ -948,10 +948,10 @@
         <v>12393.11273480329</v>
       </c>
       <c r="S8">
-        <v>0.2160659357548336</v>
+        <v>0.2179781265654455</v>
       </c>
       <c r="T8">
-        <v>0.2324864733676479</v>
+        <v>0.2218440642070489</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I9">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J9">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N9">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O9">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P9">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q9">
-        <v>81.00405618795943</v>
+        <v>111.4480800182281</v>
       </c>
       <c r="R9">
-        <v>729.0365056916349</v>
+        <v>1003.032720164053</v>
       </c>
       <c r="S9">
-        <v>0.0127102817647529</v>
+        <v>0.01764199179849333</v>
       </c>
       <c r="T9">
-        <v>0.01367623532452371</v>
+        <v>0.01795488025772219</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1340.005157</v>
       </c>
       <c r="I10">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J10">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N10">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O10">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P10">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q10">
-        <v>338.0006674597517</v>
+        <v>186.1028195486668</v>
       </c>
       <c r="R10">
-        <v>2028.00400475851</v>
+        <v>1116.616917292001</v>
       </c>
       <c r="S10">
-        <v>0.05303541479601321</v>
+        <v>0.02945967678956041</v>
       </c>
       <c r="T10">
-        <v>0.03804399339624471</v>
+        <v>0.01998810471551282</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>1340.005157</v>
       </c>
       <c r="I11">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J11">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N11">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O11">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P11">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q11">
-        <v>159.2206038704351</v>
+        <v>63.39683509336512</v>
       </c>
       <c r="R11">
-        <v>1432.985434833916</v>
+        <v>570.571515840286</v>
       </c>
       <c r="S11">
-        <v>0.02498317779607865</v>
+        <v>0.01003558288832479</v>
       </c>
       <c r="T11">
-        <v>0.02688184455840266</v>
+        <v>0.01021356835069529</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H12">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I12">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J12">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N12">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O12">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P12">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q12">
-        <v>2.260860165642</v>
+        <v>4.983757325524444</v>
       </c>
       <c r="R12">
-        <v>20.347741490778</v>
+        <v>44.85381592971999</v>
       </c>
       <c r="S12">
-        <v>0.0003547497630160292</v>
+        <v>0.0007889180849791475</v>
       </c>
       <c r="T12">
-        <v>0.0003817099675776192</v>
+        <v>0.0008029098930973206</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H13">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I13">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J13">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P13">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q13">
-        <v>1.461784629049333</v>
+        <v>2.288896351154667</v>
       </c>
       <c r="R13">
-        <v>13.156061661444</v>
+        <v>20.600067160392</v>
       </c>
       <c r="S13">
-        <v>0.0002293674587293511</v>
+        <v>0.00036232737834575</v>
       </c>
       <c r="T13">
-        <v>0.0002467988829381839</v>
+        <v>0.000368753413253935</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H14">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I14">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J14">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N14">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O14">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P14">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q14">
-        <v>0.08599085482722221</v>
+        <v>0.1852511134531111</v>
       </c>
       <c r="R14">
-        <v>0.7739176934449999</v>
+        <v>1.667260021078</v>
       </c>
       <c r="S14">
-        <v>1.349275635666769E-05</v>
+        <v>2.932485354316564E-05</v>
       </c>
       <c r="T14">
-        <v>1.451817627064524E-05</v>
+        <v>2.984494267748983E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H15">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I15">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J15">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N15">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O15">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P15">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q15">
-        <v>0.3588087769283333</v>
+        <v>0.3093436381543334</v>
       </c>
       <c r="R15">
-        <v>2.15285266157</v>
+        <v>1.856061828926</v>
       </c>
       <c r="S15">
-        <v>5.63003986348942E-05</v>
+        <v>4.896843378856089E-05</v>
       </c>
       <c r="T15">
-        <v>4.038607036656703E-05</v>
+        <v>3.322460695384352E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4741663333333333</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H16">
-        <v>1.422499</v>
+        <v>2.227382</v>
       </c>
       <c r="I16">
-        <v>0.0006804315772309073</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J16">
-        <v>0.0007119498507637952</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N16">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O16">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P16">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q16">
-        <v>0.1690225956235555</v>
+        <v>0.1053794223151111</v>
       </c>
       <c r="R16">
-        <v>1.521203360612</v>
+        <v>0.948414800836</v>
       </c>
       <c r="S16">
-        <v>2.652120049396503E-05</v>
+        <v>1.668133631291887E-05</v>
       </c>
       <c r="T16">
-        <v>2.853675361077974E-05</v>
+        <v>1.697718712593609E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H17">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I17">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J17">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N17">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O17">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P17">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q17">
-        <v>441.2894183807131</v>
+        <v>52.61971997893333</v>
       </c>
       <c r="R17">
-        <v>2647.736510284278</v>
+        <v>315.7183198736</v>
       </c>
       <c r="S17">
-        <v>0.06924237021425238</v>
+        <v>0.008329588703147916</v>
       </c>
       <c r="T17">
-        <v>0.04966975907143036</v>
+        <v>0.005651545073796362</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H18">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I18">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J18">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O18">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P18">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q18">
-        <v>285.3206485540741</v>
+        <v>24.16672345616001</v>
       </c>
       <c r="R18">
-        <v>1711.923891324444</v>
+        <v>145.00034073696</v>
       </c>
       <c r="S18">
-        <v>0.04476943510099642</v>
+        <v>0.003825540439461128</v>
       </c>
       <c r="T18">
-        <v>0.03211454270484838</v>
+        <v>0.002595592050910582</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H19">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I19">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J19">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N19">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O19">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P19">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q19">
-        <v>16.7842553420325</v>
+        <v>1.955926237773334</v>
       </c>
       <c r="R19">
-        <v>100.705532052195</v>
+        <v>11.73555742664</v>
       </c>
       <c r="S19">
-        <v>0.002633604101426493</v>
+        <v>0.0003096189242525426</v>
       </c>
       <c r="T19">
-        <v>0.00188916816109307</v>
+        <v>0.000210073434412469</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H20">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I20">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J20">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N20">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O20">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P20">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q20">
-        <v>70.0346349972675</v>
+        <v>3.26612524522</v>
       </c>
       <c r="R20">
-        <v>280.13853998907</v>
+        <v>13.06450098088</v>
       </c>
       <c r="S20">
-        <v>0.01098907864615314</v>
+        <v>0.0005170206142591149</v>
       </c>
       <c r="T20">
-        <v>0.0052552109070647</v>
+        <v>0.0002338623117900169</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>92.55087450000001</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H21">
-        <v>185.101749</v>
+        <v>15.67816</v>
       </c>
       <c r="I21">
-        <v>0.1328110687813519</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J21">
-        <v>0.09264200718360258</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N21">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O21">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P21">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q21">
-        <v>32.990931526602</v>
+        <v>1.112621528613334</v>
       </c>
       <c r="R21">
-        <v>197.945589159612</v>
+        <v>6.675729171680001</v>
       </c>
       <c r="S21">
-        <v>0.005176580718523449</v>
+        <v>0.0001761255992872476</v>
       </c>
       <c r="T21">
-        <v>0.00371332633916607</v>
+        <v>0.0001194995093389307</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H22">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I22">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J22">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N22">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O22">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P22">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q22">
-        <v>0.29386434741</v>
+        <v>2.082591500748888</v>
       </c>
       <c r="R22">
-        <v>2.64477912669</v>
+        <v>18.74332350674</v>
       </c>
       <c r="S22">
-        <v>4.611002006528562E-05</v>
+        <v>0.0003296697634433411</v>
       </c>
       <c r="T22">
-        <v>4.961428054098027E-05</v>
+        <v>0.0003355166012333313</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H23">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I23">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J23">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O23">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P23">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q23">
-        <v>0.1900013068466667</v>
+        <v>0.9564743577293333</v>
       </c>
       <c r="R23">
-        <v>1.71001176162</v>
+        <v>8.608269219564001</v>
       </c>
       <c r="S23">
-        <v>2.981295331790277E-05</v>
+        <v>0.0001514078373693849</v>
       </c>
       <c r="T23">
-        <v>3.207867243552053E-05</v>
+        <v>0.0001540931217460461</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H24">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I24">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J24">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N24">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O24">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P24">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q24">
-        <v>0.01117700546944444</v>
+        <v>0.07741195431122221</v>
       </c>
       <c r="R24">
-        <v>0.100593049225</v>
+        <v>0.6967075888009999</v>
       </c>
       <c r="S24">
-        <v>1.75377500199724E-06</v>
+        <v>1.225414617138809E-05</v>
       </c>
       <c r="T24">
-        <v>1.887058058783135E-06</v>
+        <v>1.247147882625635E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H25">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I25">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J25">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N25">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O25">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P25">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q25">
-        <v>0.04663760664166667</v>
+        <v>0.1292672153861667</v>
       </c>
       <c r="R25">
-        <v>0.27982563985</v>
+        <v>0.775603292317</v>
       </c>
       <c r="S25">
-        <v>7.317869612280055E-06</v>
+        <v>2.046272267125487E-05</v>
       </c>
       <c r="T25">
-        <v>5.249341110557132E-06</v>
+        <v>1.388375868612657E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.06163166666666667</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H26">
-        <v>0.184895</v>
+        <v>0.930769</v>
       </c>
       <c r="I26">
-        <v>8.844181716268947E-05</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J26">
-        <v>9.253853089314783E-05</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N26">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O26">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P26">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q26">
-        <v>0.02196938825111111</v>
+        <v>0.04403550874022222</v>
       </c>
       <c r="R26">
-        <v>0.19772449426</v>
+        <v>0.396319578662</v>
       </c>
       <c r="S26">
-        <v>3.447199165223782E-06</v>
+        <v>6.970726493542274E-06</v>
       </c>
       <c r="T26">
-        <v>3.709178747306761E-06</v>
+        <v>7.094355384042974E-06</v>
       </c>
     </row>
   </sheetData>
